--- a/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22ABD67-F3B5-4841-AA7E-23D70EE60C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{636179E7-1F50-4A60-BA1E-4A2CFF9BF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A656111-1D80-4A10-A9B1-4823BBF4CE9D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4D821F6-0131-4FD2-B62E-1E61C09A75E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>62,65%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,35%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,16 +188,16 @@
     <t>76,21%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>66,66%</t>
+    <t>67,07%</t>
   </si>
   <si>
     <t>75,6%</t>
@@ -212,19 +206,19 @@
     <t>73,5%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>28,92%</t>
@@ -233,16 +227,16 @@
     <t>24,4%</t>
   </si>
   <si>
-    <t>33,34%</t>
+    <t>32,93%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +245,55 @@
     <t>97,82%</t>
   </si>
   <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,7 +302,7 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,59%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -317,13 +311,13 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,62%</t>
+    <t>96,23%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,55%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -335,13 +329,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -350,7 +344,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +353,55 @@
     <t>90,52%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +410,55 @@
     <t>76,61%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>76,73%</t>
   </si>
   <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,16 +467,16 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -491,19 +485,19 @@
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -512,64 +506,70 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>88,51%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,49%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07546C20-FD90-45A0-A712-C58B237BE2C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E74E3-3E57-48D1-A66A-451B00BC4877}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>1024</v>
@@ -1293,13 +1293,13 @@
         <v>1009452</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,13 +1314,13 @@
         <v>10350</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -1329,13 +1329,13 @@
         <v>17998</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -1344,13 +1344,13 @@
         <v>28348</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1418,13 +1418,13 @@
         <v>223624</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -1433,13 +1433,13 @@
         <v>232632</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -1448,13 +1448,13 @@
         <v>456255</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1469,13 @@
         <v>69812</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -1484,13 +1484,13 @@
         <v>94658</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
@@ -1499,13 +1499,13 @@
         <v>164470</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1573,13 @@
         <v>250026</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>444</v>
@@ -1588,13 +1588,13 @@
         <v>304759</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>669</v>
@@ -1603,13 +1603,13 @@
         <v>554785</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1624,13 @@
         <v>5575</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1639,13 +1639,13 @@
         <v>28730</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -1654,13 +1654,13 @@
         <v>34305</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1728,13 @@
         <v>192001</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>480</v>
@@ -1743,13 +1743,13 @@
         <v>225639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>753</v>
@@ -1758,13 +1758,13 @@
         <v>417640</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1779,13 @@
         <v>1509</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1794,13 +1794,13 @@
         <v>2079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1809,13 +1809,13 @@
         <v>3588</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1883,13 @@
         <v>227481</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>327</v>
@@ -1898,13 +1898,13 @@
         <v>209527</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>618</v>
@@ -1913,13 +1913,13 @@
         <v>437008</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1934,13 @@
         <v>23816</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -1949,13 +1949,13 @@
         <v>25971</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -1964,13 +1964,13 @@
         <v>49787</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2038,13 @@
         <v>448164</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>624</v>
@@ -2053,13 +2053,13 @@
         <v>578562</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1032</v>
@@ -2068,13 +2068,13 @@
         <v>1026725</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>136828</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>260</v>
@@ -2104,13 +2104,13 @@
         <v>175462</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2119,13 +2119,13 @@
         <v>312291</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2193,13 @@
         <v>752776</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>977</v>
@@ -2208,13 +2208,13 @@
         <v>800856</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>1648</v>
@@ -2223,13 +2223,13 @@
         <v>1553632</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2244,13 @@
         <v>21730</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2259,13 +2259,13 @@
         <v>5121</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2274,13 +2274,13 @@
         <v>26851</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2348,13 @@
         <v>2748490</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>4182</v>
@@ -2363,28 +2363,28 @@
         <v>3036105</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>6857</v>
       </c>
       <c r="N28" s="7">
-        <v>5784595</v>
+        <v>5784596</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2399,13 @@
         <v>366582</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>694</v>
@@ -2414,13 +2414,13 @@
         <v>451045</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>1110</v>
@@ -2429,13 +2429,13 @@
         <v>817627</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>7967</v>
       </c>
       <c r="N30" s="7">
-        <v>6602222</v>
+        <v>6602223</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{636179E7-1F50-4A60-BA1E-4A2CFF9BF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{191AC622-52B2-4355-8683-E89175F22852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4D821F6-0131-4FD2-B62E-1E61C09A75E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7462ACC2-FF00-431F-A524-283922036CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E74E3-3E57-48D1-A66A-451B00BC4877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A2DAA-0D67-4C01-BA17-9A0A06ABB20C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191AC622-52B2-4355-8683-E89175F22852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0D018F-04D5-4744-80FB-40E2C0D4E13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7462ACC2-FF00-431F-A524-283922036CE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8DAB7FB-CA33-4BD8-B16B-AFF1CCFCA7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>62,65%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,35%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,16 +194,16 @@
     <t>76,21%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>67,07%</t>
+    <t>66,66%</t>
   </si>
   <si>
     <t>75,6%</t>
@@ -206,19 +212,19 @@
     <t>73,5%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>28,92%</t>
@@ -227,16 +233,16 @@
     <t>24,4%</t>
   </si>
   <si>
-    <t>32,93%</t>
+    <t>33,34%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,55 +251,55 @@
     <t>97,82%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,7 +308,7 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -311,13 +317,13 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,23%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,78%</t>
+    <t>97,55%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -329,13 +335,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,77%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -344,7 +350,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,55 +359,55 @@
     <t>90,52%</t>
   </si>
   <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,55 +416,55 @@
     <t>76,61%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>76,73%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,16 +473,16 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,79%</t>
+    <t>98,71%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -485,19 +491,19 @@
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -506,70 +512,64 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>88,51%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A2DAA-0D67-4C01-BA17-9A0A06ABB20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F42C5AE-C775-4779-B8B9-7CEEEDEA92D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>1024</v>
@@ -1293,13 +1293,13 @@
         <v>1009452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,13 +1314,13 @@
         <v>10350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -1329,13 +1329,13 @@
         <v>17998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -1344,13 +1344,13 @@
         <v>28348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1418,13 +1418,13 @@
         <v>223624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -1433,13 +1433,13 @@
         <v>232632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -1448,13 +1448,13 @@
         <v>456255</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1469,13 @@
         <v>69812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -1484,13 +1484,13 @@
         <v>94658</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
@@ -1499,13 +1499,13 @@
         <v>164470</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1573,13 @@
         <v>250026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>444</v>
@@ -1588,13 +1588,13 @@
         <v>304759</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>669</v>
@@ -1603,13 +1603,13 @@
         <v>554785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1624,13 @@
         <v>5575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1639,13 +1639,13 @@
         <v>28730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -1654,13 +1654,13 @@
         <v>34305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1728,13 @@
         <v>192001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>480</v>
@@ -1743,13 +1743,13 @@
         <v>225639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>753</v>
@@ -1758,13 +1758,13 @@
         <v>417640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1779,13 @@
         <v>1509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1794,13 +1794,13 @@
         <v>2079</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1809,13 +1809,13 @@
         <v>3588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1883,13 @@
         <v>227481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>327</v>
@@ -1898,13 +1898,13 @@
         <v>209527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>618</v>
@@ -1913,13 +1913,13 @@
         <v>437008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1934,13 @@
         <v>23816</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -1949,13 +1949,13 @@
         <v>25971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -1964,13 +1964,13 @@
         <v>49787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2038,13 @@
         <v>448164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>624</v>
@@ -2053,13 +2053,13 @@
         <v>578562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1032</v>
@@ -2068,13 +2068,13 @@
         <v>1026725</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>136828</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>260</v>
@@ -2104,13 +2104,13 @@
         <v>175462</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2119,13 +2119,13 @@
         <v>312291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2193,13 @@
         <v>752776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>977</v>
@@ -2208,13 +2208,13 @@
         <v>800856</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>1648</v>
@@ -2223,13 +2223,13 @@
         <v>1553632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2244,13 @@
         <v>21730</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2259,13 +2259,13 @@
         <v>5121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2274,13 +2274,13 @@
         <v>26851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2348,13 @@
         <v>2748490</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>4182</v>
@@ -2363,28 +2363,28 @@
         <v>3036105</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>6857</v>
       </c>
       <c r="N28" s="7">
-        <v>5784596</v>
+        <v>5784595</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2399,13 @@
         <v>366582</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>694</v>
@@ -2414,13 +2414,13 @@
         <v>451045</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>1110</v>
@@ -2429,13 +2429,13 @@
         <v>817627</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>7967</v>
       </c>
       <c r="N30" s="7">
-        <v>6602223</v>
+        <v>6602222</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0D018F-04D5-4744-80FB-40E2C0D4E13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BE4B7D-A401-4BF8-88A1-8A8DBD43FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8DAB7FB-CA33-4BD8-B16B-AFF1CCFCA7E1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68FD5041-FB0C-492C-8C18-B68788D6202B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,439 +137,445 @@
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,94%</t>
+    <t>95,76%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>96,64%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>14,3%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F42C5AE-C775-4779-B8B9-7CEEEDEA92D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD98C4A3-3D9E-4225-A463-6F1D853CBDDE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1111,7 @@
         <v>206</v>
       </c>
       <c r="D4" s="7">
-        <v>162632</v>
+        <v>194764</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1126,7 @@
         <v>339</v>
       </c>
       <c r="I4" s="7">
-        <v>166468</v>
+        <v>176606</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1141,7 @@
         <v>545</v>
       </c>
       <c r="N4" s="7">
-        <v>329100</v>
+        <v>371370</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,7 +1162,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="7">
-        <v>96961</v>
+        <v>115948</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,7 +1177,7 @@
         <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>101025</v>
+        <v>107083</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,7 +1192,7 @@
         <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>197986</v>
+        <v>223031</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,7 +1213,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259593</v>
+        <v>310712</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,7 +1228,7 @@
         <v>534</v>
       </c>
       <c r="I6" s="7">
-        <v>267493</v>
+        <v>283689</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1243,7 @@
         <v>864</v>
       </c>
       <c r="N6" s="7">
-        <v>527086</v>
+        <v>594401</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1266,7 @@
         <v>359</v>
       </c>
       <c r="D7" s="7">
-        <v>491788</v>
+        <v>491312</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,7 +1281,7 @@
         <v>665</v>
       </c>
       <c r="I7" s="7">
-        <v>517664</v>
+        <v>480977</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1290,7 +1296,7 @@
         <v>1024</v>
       </c>
       <c r="N7" s="7">
-        <v>1009452</v>
+        <v>972290</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1311,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>10350</v>
+        <v>10317</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1326,7 +1332,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>17998</v>
+        <v>16867</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1341,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>28348</v>
+        <v>27184</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1362,7 +1368,7 @@
         <v>368</v>
       </c>
       <c r="D9" s="7">
-        <v>502138</v>
+        <v>501629</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,7 +1383,7 @@
         <v>689</v>
       </c>
       <c r="I9" s="7">
-        <v>535662</v>
+        <v>497844</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,7 +1398,7 @@
         <v>1057</v>
       </c>
       <c r="N9" s="7">
-        <v>1037800</v>
+        <v>999474</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1421,7 @@
         <v>242</v>
       </c>
       <c r="D10" s="7">
-        <v>223624</v>
+        <v>220025</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1430,7 +1436,7 @@
         <v>326</v>
       </c>
       <c r="I10" s="7">
-        <v>232632</v>
+        <v>217680</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1445,7 +1451,7 @@
         <v>568</v>
       </c>
       <c r="N10" s="7">
-        <v>456255</v>
+        <v>437704</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1466,7 +1472,7 @@
         <v>81</v>
       </c>
       <c r="D11" s="7">
-        <v>69812</v>
+        <v>67974</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1481,7 +1487,7 @@
         <v>140</v>
       </c>
       <c r="I11" s="7">
-        <v>94658</v>
+        <v>88600</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1496,7 +1502,7 @@
         <v>221</v>
       </c>
       <c r="N11" s="7">
-        <v>164470</v>
+        <v>156575</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1517,7 +1523,7 @@
         <v>323</v>
       </c>
       <c r="D12" s="7">
-        <v>293436</v>
+        <v>287999</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1538,7 @@
         <v>466</v>
       </c>
       <c r="I12" s="7">
-        <v>327290</v>
+        <v>306280</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1553,7 @@
         <v>789</v>
       </c>
       <c r="N12" s="7">
-        <v>620725</v>
+        <v>594279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1576,7 @@
         <v>225</v>
       </c>
       <c r="D13" s="7">
-        <v>250026</v>
+        <v>240149</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1585,7 +1591,7 @@
         <v>444</v>
       </c>
       <c r="I13" s="7">
-        <v>304759</v>
+        <v>282002</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1600,7 +1606,7 @@
         <v>669</v>
       </c>
       <c r="N13" s="7">
-        <v>554785</v>
+        <v>522152</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1621,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>5575</v>
+        <v>5326</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1636,7 +1642,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>28730</v>
+        <v>82185</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1651,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>34305</v>
+        <v>87510</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1672,7 +1678,7 @@
         <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>255601</v>
+        <v>245475</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1687,7 +1693,7 @@
         <v>462</v>
       </c>
       <c r="I15" s="7">
-        <v>333489</v>
+        <v>364187</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1702,7 +1708,7 @@
         <v>694</v>
       </c>
       <c r="N15" s="7">
-        <v>589090</v>
+        <v>609662</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1731,7 @@
         <v>273</v>
       </c>
       <c r="D16" s="7">
-        <v>192001</v>
+        <v>174496</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1740,7 +1746,7 @@
         <v>480</v>
       </c>
       <c r="I16" s="7">
-        <v>225639</v>
+        <v>202902</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1755,7 +1761,7 @@
         <v>753</v>
       </c>
       <c r="N16" s="7">
-        <v>417640</v>
+        <v>377398</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1776,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1509</v>
+        <v>1358</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1791,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>2079</v>
+        <v>1943</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1806,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>3588</v>
+        <v>3301</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1827,7 +1833,7 @@
         <v>275</v>
       </c>
       <c r="D18" s="7">
-        <v>193510</v>
+        <v>175854</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1848,7 @@
         <v>482</v>
       </c>
       <c r="I18" s="7">
-        <v>227718</v>
+        <v>204845</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1857,7 +1863,7 @@
         <v>757</v>
       </c>
       <c r="N18" s="7">
-        <v>421228</v>
+        <v>380699</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1880,7 +1886,7 @@
         <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>227481</v>
+        <v>221209</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -1895,7 +1901,7 @@
         <v>327</v>
       </c>
       <c r="I19" s="7">
-        <v>209527</v>
+        <v>195309</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -1910,7 +1916,7 @@
         <v>618</v>
       </c>
       <c r="N19" s="7">
-        <v>437008</v>
+        <v>416519</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -1931,7 +1937,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>23816</v>
+        <v>23322</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -1946,7 +1952,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="7">
-        <v>25971</v>
+        <v>24376</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -1961,7 +1967,7 @@
         <v>77</v>
       </c>
       <c r="N20" s="7">
-        <v>49787</v>
+        <v>47698</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1982,7 +1988,7 @@
         <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>251297</v>
+        <v>244531</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1997,7 +2003,7 @@
         <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>235498</v>
+        <v>219685</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2012,7 +2018,7 @@
         <v>695</v>
       </c>
       <c r="N21" s="7">
-        <v>486795</v>
+        <v>464217</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2041,7 @@
         <v>408</v>
       </c>
       <c r="D22" s="7">
-        <v>448164</v>
+        <v>447749</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>125</v>
@@ -2050,7 +2056,7 @@
         <v>624</v>
       </c>
       <c r="I22" s="7">
-        <v>578562</v>
+        <v>639827</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>128</v>
@@ -2065,7 +2071,7 @@
         <v>1032</v>
       </c>
       <c r="N22" s="7">
-        <v>1026725</v>
+        <v>1087577</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -2086,7 +2092,7 @@
         <v>144</v>
       </c>
       <c r="D23" s="7">
-        <v>136828</v>
+        <v>135875</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>134</v>
@@ -2101,7 +2107,7 @@
         <v>260</v>
       </c>
       <c r="I23" s="7">
-        <v>175462</v>
+        <v>164125</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>137</v>
@@ -2116,7 +2122,7 @@
         <v>404</v>
       </c>
       <c r="N23" s="7">
-        <v>312291</v>
+        <v>299999</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>140</v>
@@ -2137,7 +2143,7 @@
         <v>552</v>
       </c>
       <c r="D24" s="7">
-        <v>584992</v>
+        <v>583624</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2152,7 +2158,7 @@
         <v>884</v>
       </c>
       <c r="I24" s="7">
-        <v>754024</v>
+        <v>803952</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2167,7 +2173,7 @@
         <v>1436</v>
       </c>
       <c r="N24" s="7">
-        <v>1339016</v>
+        <v>1387576</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2190,7 +2196,7 @@
         <v>671</v>
       </c>
       <c r="D25" s="7">
-        <v>752776</v>
+        <v>839075</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>144</v>
@@ -2205,7 +2211,7 @@
         <v>977</v>
       </c>
       <c r="I25" s="7">
-        <v>800856</v>
+        <v>662140</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>147</v>
@@ -2220,7 +2226,7 @@
         <v>1648</v>
       </c>
       <c r="N25" s="7">
-        <v>1553632</v>
+        <v>1501216</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>150</v>
@@ -2241,7 +2247,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>21730</v>
+        <v>18242</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -2256,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>5121</v>
+        <v>4434</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>156</v>
@@ -2271,7 +2277,7 @@
         <v>27</v>
       </c>
       <c r="N26" s="7">
-        <v>26851</v>
+        <v>22675</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>159</v>
@@ -2292,7 +2298,7 @@
         <v>688</v>
       </c>
       <c r="D27" s="7">
-        <v>774506</v>
+        <v>857317</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2307,7 +2313,7 @@
         <v>987</v>
       </c>
       <c r="I27" s="7">
-        <v>805977</v>
+        <v>666574</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2322,7 +2328,7 @@
         <v>1675</v>
       </c>
       <c r="N27" s="7">
-        <v>1580483</v>
+        <v>1523891</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2345,7 +2351,7 @@
         <v>2675</v>
       </c>
       <c r="D28" s="7">
-        <v>2748490</v>
+        <v>2828781</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -2360,7 +2366,7 @@
         <v>4182</v>
       </c>
       <c r="I28" s="7">
-        <v>3036105</v>
+        <v>2857444</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -2375,16 +2381,16 @@
         <v>6857</v>
       </c>
       <c r="N28" s="7">
-        <v>5784595</v>
+        <v>5686225</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,46 +2402,46 @@
         <v>416</v>
       </c>
       <c r="D29" s="7">
-        <v>366582</v>
+        <v>378361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>694</v>
       </c>
       <c r="I29" s="7">
-        <v>451045</v>
+        <v>489612</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1110</v>
       </c>
       <c r="N29" s="7">
-        <v>817627</v>
+        <v>867973</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2453,7 @@
         <v>3091</v>
       </c>
       <c r="D30" s="7">
-        <v>3115072</v>
+        <v>3207142</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2468,7 @@
         <v>4876</v>
       </c>
       <c r="I30" s="7">
-        <v>3487150</v>
+        <v>3347056</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2483,7 @@
         <v>7967</v>
       </c>
       <c r="N30" s="7">
-        <v>6602222</v>
+        <v>6554198</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
